--- a/data/output/FV2504_FV2410/UTILTS/25009.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25009.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="228">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="228">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -851,6 +851,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U84" totalsRowShown="0">
+  <autoFilter ref="A1:U84"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1140,7 +1170,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5243,5 +5276,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILTS/25009.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="311">
   <si>
     <t>#</t>
   </si>
@@ -4069,54 +4069,52 @@
       <c r="V50" s="9"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M51" s="5" t="s">
+      <c r="L51" s="4"/>
+      <c r="M51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5" t="s">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="V51" s="5" t="s">
+      <c r="V51" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4150,9 +4148,7 @@
         <v>181</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4341,52 +4337,50 @@
       <c r="V55" s="9"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O56" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5" t="s">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4418,9 +4412,7 @@
         <v>181</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4478,9 +4470,7 @@
       <c r="K58" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4538,9 +4528,7 @@
         <v>181</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>
@@ -4569,44 +4557,42 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V60" s="5"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4744,9 +4730,7 @@
         <v>181</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -4773,46 +4757,44 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="L64" s="4"/>
+      <c r="M64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V64" s="5" t="s">
+      <c r="V64" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5029,46 +5011,44 @@
       <c r="V68" s="5"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L69" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="L69" s="4"/>
+      <c r="M69" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="V69" s="5" t="s">
+      <c r="V69" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5438,9 +5418,7 @@
       <c r="K76" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L76" s="7" t="s">
-        <v>214</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>38</v>
       </c>
@@ -5469,44 +5447,42 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="M77" s="5" t="s">
+      <c r="K77" s="2"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V77" s="5"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILTS/25009.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25009.xlsx
@@ -1084,7 +1084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1111,6 +1111,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,7 +1560,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1921,7 +1924,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2063,7 +2066,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2265,7 +2268,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2577,7 +2580,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2777,7 +2780,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3151,7 +3154,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3465,7 +3468,7 @@
         <v>202</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3667,7 +3670,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3829,7 +3832,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4095,7 +4098,7 @@
         <v>205</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4361,7 +4364,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4577,7 +4580,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4779,7 +4782,7 @@
         <v>208</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4973,30 +4976,30 @@
       <c r="B68" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G68" s="10" t="s">
+      <c r="G68" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10" t="s">
+      <c r="H68" s="11"/>
+      <c r="I68" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11" t="s">
+      <c r="K68" s="11"/>
+      <c r="L68" s="12" t="s">
         <v>216</v>
       </c>
       <c r="M68" s="5"/>
@@ -5033,7 +5036,7 @@
         <v>210</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5161,52 +5164,52 @@
       <c r="V71" s="5"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5" t="s">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="O72" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P72" s="5"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5" t="s">
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V72" s="5"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
@@ -5467,7 +5470,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5713,48 +5716,48 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5" t="s">
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
